--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1572013.36149361</v>
+        <v>1567465.941597836</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>763237.3199885441</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10308366.58068654</v>
+        <v>10442874.46950188</v>
       </c>
     </row>
     <row r="11">
@@ -667,67 +667,67 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>68.45099403238653</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>13.09783323005805</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="G2" t="n">
+      <c r="V2" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>125.4713171199747</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>158.7758131900531</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>145.198658204325</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>122.3380328106266</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -752,16 +752,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>102.464402974141</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>20.00402729331206</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.10833718734057</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>353.666886532461</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>12.25188473404938</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708302</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>93.02415644731754</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -980,7 +980,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904886</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>196.3506765115035</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.78388647767647</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923926</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.52615597052875</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>164.6615622377237</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>162.4813142691036</v>
+        <v>231.8762019911357</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.4287756738078</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>299.8005904082743</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>120.7421641270002</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.1375816037212</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0357359605303</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1214,13 +1214,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>167.5438843152567</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>92.21702052251149</v>
+        <v>20.27697994470865</v>
       </c>
       <c r="I9" t="n">
-        <v>28.15788129210623</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>16.98703979721944</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>133.1827058773499</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>191.810082285579</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8050167968196</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>31.68046530976929</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>146.7772093623003</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>103.1923173770327</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.138199169715193</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.994152416892007</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>122.5285222238388</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>301.7248287451653</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.33742371513345</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>359.5517498754658</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045443</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374742</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,10 +1700,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.4255876952162</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.1834952849959</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>233.2715658672525</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081963</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374742</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1937,10 +1937,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561457</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952162</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>59.75887110882562</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.2811815126420993</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045443</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.32106446352842</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374742</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2174,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561457</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952162</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>100.0416311957212</v>
       </c>
       <c r="T22" t="n">
-        <v>115.0648329620426</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>64.36993339924405</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>20.88994825141578</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2961,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624345</v>
       </c>
       <c r="U31" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>138.2893995353475</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703221</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>4.974488840438739</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>241.1435815093809</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4030,7 +4030,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>19.91555826189057</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>589.7227393823975</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="C2" t="n">
-        <v>589.7227393823975</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="D2" t="n">
-        <v>589.7227393823975</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="E2" t="n">
-        <v>520.5803211678657</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="F2" t="n">
-        <v>331.1605361513809</v>
+        <v>28.2321815491218</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
         <v>15.00204697330559</v>
@@ -4345,7 +4345,7 @@
         <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985581</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
         <v>734.4611726020263</v>
@@ -4357,25 +4357,25 @@
         <v>750.1023486652795</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823975</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T2" t="n">
-        <v>589.7227393823975</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U2" t="n">
-        <v>589.7227393823975</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="V2" t="n">
-        <v>589.7227393823975</v>
+        <v>371.26277863231</v>
       </c>
       <c r="W2" t="n">
-        <v>589.7227393823975</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="X2" t="n">
-        <v>589.7227393823975</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="Y2" t="n">
-        <v>589.7227393823975</v>
+        <v>35.17768229832527</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>750.1023486652795</v>
+        <v>581.8870116452115</v>
       </c>
       <c r="C3" t="n">
-        <v>750.1023486652795</v>
+        <v>458.313241129427</v>
       </c>
       <c r="D3" t="n">
-        <v>601.1679390040282</v>
+        <v>458.313241129427</v>
       </c>
       <c r="E3" t="n">
-        <v>441.9304839985727</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F3" t="n">
-        <v>295.3959260254577</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G3" t="n">
-        <v>191.8965290818809</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>90.0361681215378</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
         <v>15.00204697330559</v>
@@ -4418,13 +4418,13 @@
         <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
         <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
         <v>739.598998701706</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="K4" t="n">
         <v>15.00204697330559</v>
@@ -4509,31 +4509,31 @@
         <v>49.45491281910415</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.00204697330559</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="R4" t="n">
-        <v>15.00204697330559</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="S4" t="n">
-        <v>15.00204697330559</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330559</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330559</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330559</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>49.45491281910415</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1335.127537179187</v>
+        <v>773.135493728392</v>
       </c>
       <c r="C5" t="n">
-        <v>1335.127537179187</v>
+        <v>404.1729767879803</v>
       </c>
       <c r="D5" t="n">
-        <v>1335.127537179187</v>
+        <v>404.1729767879803</v>
       </c>
       <c r="E5" t="n">
-        <v>949.3392845809428</v>
+        <v>404.1729767879803</v>
       </c>
       <c r="F5" t="n">
-        <v>538.3533797913353</v>
+        <v>46.93369746226207</v>
       </c>
       <c r="G5" t="n">
-        <v>122.3223344947426</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="H5" t="n">
-        <v>122.3223344947426</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="I5" t="n">
-        <v>43.36919653809306</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="J5" t="n">
-        <v>152.5078184301901</v>
+        <v>111.6705539017221</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232727</v>
+        <v>277.9807166746982</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711874</v>
+        <v>521.2049416030762</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.14846457873</v>
+        <v>823.5081935709173</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135167</v>
+        <v>1135.316836582751</v>
       </c>
       <c r="O5" t="n">
-        <v>1761.960612545596</v>
+        <v>1416.413635079238</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172447</v>
+        <v>1621.822248332757</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904653</v>
+        <v>1727.902815837882</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904653</v>
+        <v>1727.902815837882</v>
       </c>
       <c r="S5" t="n">
-        <v>2168.459826904653</v>
+        <v>1727.902815837882</v>
       </c>
       <c r="T5" t="n">
-        <v>2168.459826904653</v>
+        <v>1516.043480974318</v>
       </c>
       <c r="U5" t="n">
-        <v>2168.459826904653</v>
+        <v>1516.043480974318</v>
       </c>
       <c r="V5" t="n">
-        <v>2074.496032513423</v>
+        <v>1516.043480974318</v>
       </c>
       <c r="W5" t="n">
-        <v>1721.727377243309</v>
+        <v>1163.274825704204</v>
       </c>
       <c r="X5" t="n">
-        <v>1721.727377243309</v>
+        <v>1163.274825704204</v>
       </c>
       <c r="Y5" t="n">
-        <v>1721.727377243309</v>
+        <v>773.135493728392</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.7157345966835</v>
+        <v>663.7175082377064</v>
       </c>
       <c r="C6" t="n">
-        <v>481.2627053155565</v>
+        <v>489.2644789565794</v>
       </c>
       <c r="D6" t="n">
-        <v>481.2627053155565</v>
+        <v>340.3300692953281</v>
       </c>
       <c r="E6" t="n">
-        <v>322.025250310101</v>
+        <v>181.0926142898727</v>
       </c>
       <c r="F6" t="n">
-        <v>175.490692336986</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="G6" t="n">
-        <v>175.490692336986</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="H6" t="n">
-        <v>80.03532540581918</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="I6" t="n">
-        <v>43.36919653809306</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="J6" t="n">
-        <v>89.55356510562314</v>
+        <v>61.6678846478752</v>
       </c>
       <c r="K6" t="n">
-        <v>246.6448318504519</v>
+        <v>186.157723980606</v>
       </c>
       <c r="L6" t="n">
-        <v>504.1959674104394</v>
+        <v>399.8722171189974</v>
       </c>
       <c r="M6" t="n">
-        <v>824.1028628789486</v>
+        <v>668.6238185223493</v>
       </c>
       <c r="N6" t="n">
-        <v>1166.88538687358</v>
+        <v>958.8971200352469</v>
       </c>
       <c r="O6" t="n">
-        <v>1458.244633128146</v>
+        <v>1202.220686228317</v>
       </c>
       <c r="P6" t="n">
-        <v>1672.753048689046</v>
+        <v>1378.176233639507</v>
       </c>
       <c r="Q6" t="n">
-        <v>1766.227047333486</v>
+        <v>1445.878660906548</v>
       </c>
       <c r="R6" t="n">
-        <v>1766.227047333486</v>
+        <v>1445.878660906548</v>
       </c>
       <c r="S6" t="n">
-        <v>1766.227047333486</v>
+        <v>1445.878660906548</v>
       </c>
       <c r="T6" t="n">
-        <v>1766.227047333486</v>
+        <v>1445.878660906548</v>
       </c>
       <c r="U6" t="n">
-        <v>1538.12545746675</v>
+        <v>1445.878660906548</v>
       </c>
       <c r="V6" t="n">
-        <v>1302.973349235008</v>
+        <v>1247.544644228261</v>
       </c>
       <c r="W6" t="n">
-        <v>1048.735992506806</v>
+        <v>1247.544644228261</v>
       </c>
       <c r="X6" t="n">
-        <v>840.8844923012732</v>
+        <v>1039.693144022728</v>
       </c>
       <c r="Y6" t="n">
-        <v>823.9310716167515</v>
+        <v>831.9328452577745</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>506.6265632319841</v>
+        <v>203.4942392446646</v>
       </c>
       <c r="C7" t="n">
-        <v>506.6265632319841</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="D7" t="n">
-        <v>356.5099238196483</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="E7" t="n">
-        <v>208.5968302372552</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="F7" t="n">
-        <v>61.70688273934483</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="G7" t="n">
-        <v>61.70688273934483</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="H7" t="n">
-        <v>61.70688273934483</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="I7" t="n">
-        <v>61.70688273934483</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="J7" t="n">
-        <v>43.36919653809306</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="K7" t="n">
-        <v>92.71685897981519</v>
+        <v>64.24066662574675</v>
       </c>
       <c r="L7" t="n">
-        <v>185.7706748018941</v>
+        <v>132.1299861584112</v>
       </c>
       <c r="M7" t="n">
-        <v>287.1411594927331</v>
+        <v>206.9680378347967</v>
       </c>
       <c r="N7" t="n">
-        <v>393.9588065377459</v>
+        <v>287.884133819536</v>
       </c>
       <c r="O7" t="n">
-        <v>472.3091036033657</v>
+        <v>342.310156193471</v>
       </c>
       <c r="P7" t="n">
-        <v>520.289347040599</v>
+        <v>369.8190495857996</v>
       </c>
       <c r="Q7" t="n">
-        <v>506.6265632319841</v>
+        <v>369.8190495857996</v>
       </c>
       <c r="R7" t="n">
-        <v>506.6265632319841</v>
+        <v>369.8190495857996</v>
       </c>
       <c r="S7" t="n">
-        <v>506.6265632319841</v>
+        <v>369.8190495857996</v>
       </c>
       <c r="T7" t="n">
-        <v>506.6265632319841</v>
+        <v>369.8190495857996</v>
       </c>
       <c r="U7" t="n">
-        <v>506.6265632319841</v>
+        <v>369.8190495857996</v>
       </c>
       <c r="V7" t="n">
-        <v>506.6265632319841</v>
+        <v>369.8190495857996</v>
       </c>
       <c r="W7" t="n">
-        <v>506.6265632319841</v>
+        <v>369.8190495857996</v>
       </c>
       <c r="X7" t="n">
-        <v>506.6265632319841</v>
+        <v>369.8190495857996</v>
       </c>
       <c r="Y7" t="n">
-        <v>506.6265632319841</v>
+        <v>203.4942392446646</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1733.457188798294</v>
+        <v>665.4862413335291</v>
       </c>
       <c r="C8" t="n">
-        <v>1733.457188798294</v>
+        <v>296.5237243931173</v>
       </c>
       <c r="D8" t="n">
-        <v>1569.334649132533</v>
+        <v>62.30533854348526</v>
       </c>
       <c r="E8" t="n">
-        <v>1183.546396534289</v>
+        <v>62.30533854348526</v>
       </c>
       <c r="F8" t="n">
-        <v>772.5604917446813</v>
+        <v>55.35983779428179</v>
       </c>
       <c r="G8" t="n">
-        <v>356.9758698519461</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H8" t="n">
-        <v>54.14699065166903</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I8" t="n">
-        <v>54.14699065166903</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J8" t="n">
-        <v>200.4212373122965</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K8" t="n">
-        <v>470.3869336157618</v>
+        <v>366.8168396232726</v>
       </c>
       <c r="L8" t="n">
-        <v>842.2050137379742</v>
+        <v>669.587892771188</v>
       </c>
       <c r="M8" t="n">
-        <v>1287.593706992221</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N8" t="n">
-        <v>1744.803063321697</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O8" t="n">
-        <v>2163.197632325228</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P8" t="n">
-        <v>2485.786716210322</v>
+        <v>2021.63095817245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2679.864937059321</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="R8" t="n">
-        <v>2707.349532583451</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="S8" t="n">
-        <v>2585.387750636987</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="T8" t="n">
-        <v>2377.167971239288</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="U8" t="n">
-        <v>2123.596520774106</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="V8" t="n">
-        <v>2123.596520774106</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="W8" t="n">
-        <v>2123.596520774106</v>
+        <v>1815.691171634542</v>
       </c>
       <c r="X8" t="n">
-        <v>2123.596520774106</v>
+        <v>1442.225413373463</v>
       </c>
       <c r="Y8" t="n">
-        <v>1733.457188798294</v>
+        <v>1052.086081397651</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>491.5086053216269</v>
+        <v>693.01044638299</v>
       </c>
       <c r="C9" t="n">
-        <v>322.2723585385394</v>
+        <v>518.5574171018631</v>
       </c>
       <c r="D9" t="n">
-        <v>322.2723585385394</v>
+        <v>369.6230074406118</v>
       </c>
       <c r="E9" t="n">
-        <v>322.2723585385394</v>
+        <v>210.3855524351563</v>
       </c>
       <c r="F9" t="n">
-        <v>175.7378005654243</v>
+        <v>63.85099446204126</v>
       </c>
       <c r="G9" t="n">
-        <v>175.7378005654243</v>
+        <v>63.85099446204126</v>
       </c>
       <c r="H9" t="n">
-        <v>82.58929498712986</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I9" t="n">
-        <v>54.14699065166903</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J9" t="n">
-        <v>122.4490829268375</v>
+        <v>89.55356510562341</v>
       </c>
       <c r="K9" t="n">
-        <v>317.3430623472207</v>
+        <v>246.6448318504524</v>
       </c>
       <c r="L9" t="n">
-        <v>625.7246102439909</v>
+        <v>504.1959674104403</v>
       </c>
       <c r="M9" t="n">
-        <v>1004.948199393864</v>
+        <v>824.1028628789501</v>
       </c>
       <c r="N9" t="n">
-        <v>1408.617353449275</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1755.675971040745</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P9" t="n">
-        <v>2014.88804264283</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q9" t="n">
-        <v>2138.245251481184</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R9" t="n">
-        <v>2121.086625423387</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="S9" t="n">
-        <v>1986.55863968869</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="T9" t="n">
-        <v>1792.811081824469</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="U9" t="n">
-        <v>1564.725206272126</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="V9" t="n">
-        <v>1329.573098040383</v>
+        <v>1531.074939101746</v>
       </c>
       <c r="W9" t="n">
-        <v>1075.335741312182</v>
+        <v>1276.837582373545</v>
       </c>
       <c r="X9" t="n">
-        <v>867.4842411066488</v>
+        <v>1068.986082168012</v>
       </c>
       <c r="Y9" t="n">
-        <v>659.723942341695</v>
+        <v>861.2257834030581</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>310.8214612668692</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="C10" t="n">
-        <v>310.8214612668692</v>
+        <v>488.2888770307324</v>
       </c>
       <c r="D10" t="n">
-        <v>310.8214612668692</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="E10" t="n">
-        <v>310.8214612668692</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="F10" t="n">
-        <v>310.8214612668692</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="G10" t="n">
-        <v>310.8214612668692</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H10" t="n">
-        <v>162.5616538302022</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I10" t="n">
-        <v>58.32698981299751</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J10" t="n">
-        <v>54.14699065166903</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="K10" t="n">
-        <v>126.2970999349563</v>
+        <v>92.71685897981547</v>
       </c>
       <c r="L10" t="n">
-        <v>248.5301971065624</v>
+        <v>185.7706748018946</v>
       </c>
       <c r="M10" t="n">
-        <v>380.6661427433411</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N10" t="n">
-        <v>517.5177168371854</v>
+        <v>393.9588065377469</v>
       </c>
       <c r="O10" t="n">
-        <v>623.6092066643589</v>
+        <v>472.309103603367</v>
       </c>
       <c r="P10" t="n">
-        <v>695.3268329482419</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="Q10" t="n">
-        <v>689.2721335372398</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="R10" t="n">
-        <v>689.2721335372398</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="S10" t="n">
-        <v>689.2721335372398</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="T10" t="n">
-        <v>689.2721335372398</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="U10" t="n">
-        <v>565.5059494727561</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="V10" t="n">
-        <v>310.8214612668692</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="W10" t="n">
-        <v>310.8214612668692</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="X10" t="n">
-        <v>310.8214612668692</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="Y10" t="n">
-        <v>310.8214612668692</v>
+        <v>520.2893470406003</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2303.170539913434</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1934.208022973022</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218345</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609172</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609172</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>2994.542934265602</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>2994.542934265602</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>2994.542934265602</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2689.770379977556</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927784</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064586</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.8377936138381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>163.8377936138381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>163.8377936138381</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>163.8377936138381</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>163.8377936138381</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279955</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760407</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>1859.276948376237</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>1667.591064203064</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1445.82444877259</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1156.721581898233</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>902.0370936923462</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>612.6199236553855</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>384.6303727573681</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>163.8377936138381</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555044</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614632</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007882</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.408479409638</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>742.4225746200302</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957688</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874794</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070875</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750193</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469743</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126172</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856058</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594978</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619166</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>942.6241165038822</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>768.1710872227552</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>619.2366775615039</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>459.9992225560484</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>177.6844143428629</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>240.4596049779265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>240.4596049779265</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>832.477959230054</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1454.57392262939</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2243.870218930011</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2015.840717454381</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1780.688609222638</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1526.451252494437</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1318.599752288904</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1110.83945352395</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>494.0589900220732</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C16" t="n">
-        <v>325.1228070941663</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>175.4425088264937</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>175.4425088264937</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>175.4425088264937</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>175.4425088264937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020528</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368669</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.346239107599</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.667456821981</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136708</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.906754930821</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.48958489386</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X16" t="n">
-        <v>896.5000339958431</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.7074548523129</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2266.424947555044</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1897.462430614632</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1539.196732007882</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1153.408479409638</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>742.4225746200302</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>328.4394675364367</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608053</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251935</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128754</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.45766301865</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.462224957688</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874794</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333933</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.91518802128</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.497374127288</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4555.113898070875</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4353.904749750193</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4100.461420469743</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3769.398533126172</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3416.629877856058</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3043.164119594978</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2653.024787619166</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>942.6241165038822</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>768.1710872227552</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>619.2366775615039</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>459.9992225560484</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829333</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>177.6844143428629</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>240.4596049779265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>240.4596049779265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>731.1919378216777</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1323.210292073805</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1945.306255473141</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2492.182730473336</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>2243.870218930011</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>2015.840717454381</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>1780.688609222638</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>1526.451252494437</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>1318.599752288904</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>1110.83945352395</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>675.7074548523129</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C19" t="n">
-        <v>615.3449587827921</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D19" t="n">
-        <v>465.2283193704564</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E19" t="n">
-        <v>317.3152257880633</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F19" t="n">
-        <v>317.3152257880633</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.3152257880633</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.4425088264937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156344</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861981</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>819.1842911693323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1238.413883213791</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1653.109749005498</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2020.132206020528</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.662640856733</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2428.375774410168</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.516429368669</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2177.346239107599</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1957.667456821981</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1668.591243136708</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V19" t="n">
-        <v>1413.906754930821</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W19" t="n">
-        <v>1124.48958489386</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X19" t="n">
-        <v>896.5000339958431</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y19" t="n">
-        <v>675.7074548523129</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.224468905844</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.261951965432</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1589.996253358682</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.22209597083</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.2389888872365</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322607952</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251925</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128745</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.457663018649</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957687</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874793</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333932</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.91518802128</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127288</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4605.913419421674</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4404.704271100993</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.260941820542</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.198054476972</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.429399206857</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3093.963640945778</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2703.824308969966</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>942.6241165038822</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>768.1710872227552</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>619.2366775615039</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>459.9992225560484</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>313.4646645829333</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>177.6844143428629</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>240.4596049779265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>240.4596049779265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>731.1919378216777</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1323.210292073805</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1945.306255473141</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2492.182730473336</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>2243.870218930011</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>2015.840717454381</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>1780.688609222638</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>1526.451252494437</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>1318.599752288904</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>1110.83945352395</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>848.5402036081963</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C22" t="n">
-        <v>679.6040206802894</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D22" t="n">
-        <v>529.4873812679537</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>381.5742876855605</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>234.6843401876502</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>234.6843401876502</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>92.81162322608053</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7937461156344</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>431.4224730861981</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>819.1842911693323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1238.413883213791</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1653.109749005498</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2020.132206020528</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2310.662640856733</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2428.375774410168</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2428.375774410168</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2428.375774410168</v>
+        <v>2345.91093085731</v>
       </c>
       <c r="T22" t="n">
-        <v>2312.148670408104</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="U22" t="n">
-        <v>2023.072456722831</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V22" t="n">
-        <v>1768.387968516944</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W22" t="n">
-        <v>1478.970798479983</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X22" t="n">
-        <v>1250.981247581966</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>1030.188668438436</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5986,16 +5986,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6077,19 +6077,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6223,7 +6223,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6262,10 +6262,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6366,19 +6366,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>323.8164599824514</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192616</v>
@@ -6472,10 +6472,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.7825789706076</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8463960427007</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>241.729756630365</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478291</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038296</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797697</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.10824923516</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>1735.314832085242</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1480.630343879355</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.213173842395</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>963.2236229443774</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.4310438008473</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192616</v>
@@ -6709,10 +6709,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2799.685872231728</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C34" t="n">
-        <v>2799.685872231728</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D34" t="n">
-        <v>2799.685872231728</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="E34" t="n">
-        <v>2651.772778649335</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="F34" t="n">
-        <v>2504.882831151424</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.052681478291</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038296</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797697</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="35">
@@ -6919,16 +6919,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="38">
@@ -7156,37 +7156,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7411,13 +7411,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7788,19 +7788,19 @@
         <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474262</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>113.9333885650331</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>113.9333885650331</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>84.51310991088832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.59472895491386</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>50.29152613729184</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4319777332164563</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>145.6085800303776</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>50.29152613729178</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>107.4879499898022</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>145.1398665102892</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.29152613729121</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108356</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>80.98465480592338</v>
       </c>
       <c r="T22" t="n">
-        <v>102.4171615007192</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>84.24553961896831</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>127.7255247667966</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>125.5054897610448</v>
       </c>
       <c r="U31" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.54258064658981</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.2291039219467</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>220.7351665485984</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>45.37941682721012</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>765442.2168613338</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>898196.3479271419</v>
+        <v>903109.8587843147</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>898196.3479271421</v>
+        <v>903109.8587843147</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>898196.3479271421</v>
+        <v>903109.8587843147</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>903109.8587843146</v>
+        <v>903109.8587843147</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>903109.8587843146</v>
+        <v>903109.8587843145</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>903109.8587843146</v>
+        <v>903109.8587843145</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>903109.8587843146</v>
+        <v>903109.8587843147</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117841</v>
       </c>
       <c r="E2" t="n">
-        <v>443296.2286621971</v>
+        <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
-        <v>521741.85156472</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
-        <v>521741.85156472</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
-        <v>521741.8515647202</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
         <v>524645.289798504</v>
@@ -26340,22 +26340,22 @@
         <v>524645.2897985041</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985042</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861775</v>
+        <v>270592.3620253117</v>
       </c>
       <c r="D3" t="n">
-        <v>136000.7074085147</v>
+        <v>115410.0540231945</v>
       </c>
       <c r="E3" t="n">
-        <v>147481.6015574854</v>
+        <v>601443.2075742643</v>
       </c>
       <c r="F3" t="n">
-        <v>306241.8686975054</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,22 +26386,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744865</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487776</v>
+        <v>62913.63765881951</v>
       </c>
       <c r="L3" t="n">
-        <v>34097.0336249882</v>
+        <v>27875.25362197524</v>
       </c>
       <c r="M3" t="n">
-        <v>38517.98506259144</v>
+        <v>157146.3805515978</v>
       </c>
       <c r="N3" t="n">
-        <v>80518.24125636034</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>174202.9900888977</v>
+        <v>206604.4229263464</v>
       </c>
       <c r="D4" t="n">
-        <v>136660.5945769996</v>
+        <v>174202.9900888974</v>
       </c>
       <c r="E4" t="n">
-        <v>15869.84275221455</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16040.05135066662</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16040.05135066662</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16040.05135066662</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26472,22 +26472,22 @@
         <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>85199.08185587224</v>
+        <v>76435.73471936815</v>
       </c>
       <c r="D5" t="n">
-        <v>95786.8394703259</v>
+        <v>85199.08185587231</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139333</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>100142.1285138384</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>100142.1285138384</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>100142.1285138384</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-393202.1173548045</v>
+        <v>-393202.1173548048</v>
       </c>
       <c r="C6" t="n">
-        <v>-118235.1658191631</v>
+        <v>-19955.36925924207</v>
       </c>
       <c r="D6" t="n">
-        <v>165229.0089559438</v>
+        <v>158865.0244438198</v>
       </c>
       <c r="E6" t="n">
-        <v>205638.4437911038</v>
+        <v>-194314.4108259163</v>
       </c>
       <c r="F6" t="n">
-        <v>99317.80300270952</v>
+        <v>407128.7967483478</v>
       </c>
       <c r="G6" t="n">
-        <v>405559.671700215</v>
+        <v>407128.7967483478</v>
       </c>
       <c r="H6" t="n">
-        <v>405559.6717002151</v>
+        <v>407128.7967483478</v>
       </c>
       <c r="I6" t="n">
-        <v>396657.2625452562</v>
+        <v>407128.7967483479</v>
       </c>
       <c r="J6" t="n">
-        <v>358411.2312741604</v>
+        <v>358063.8520198035</v>
       </c>
       <c r="K6" t="n">
-        <v>316216.2191378271</v>
+        <v>344215.1590895284</v>
       </c>
       <c r="L6" t="n">
-        <v>373379.1423777167</v>
+        <v>379253.5431263727</v>
       </c>
       <c r="M6" t="n">
-        <v>368958.1909401136</v>
+        <v>249982.4161967502</v>
       </c>
       <c r="N6" t="n">
-        <v>326957.9347463447</v>
+        <v>407128.7967483478</v>
       </c>
       <c r="O6" t="n">
-        <v>407476.1760027049</v>
+        <v>407128.7967483479</v>
       </c>
       <c r="P6" t="n">
-        <v>407476.176002705</v>
+        <v>407128.7967483482</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>853.710664537684</v>
+        <v>758.899629295061</v>
       </c>
       <c r="D3" t="n">
-        <v>963.6480080301578</v>
+        <v>853.7106645376849</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716386</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716386</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26792,22 +26792,22 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261632</v>
+        <v>431.9757039594706</v>
       </c>
       <c r="D4" t="n">
-        <v>676.8373831458629</v>
+        <v>542.1149567261641</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326006</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1160.145290326006</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26962,16 +26962,16 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247794</v>
+        <v>210.4296883821564</v>
       </c>
       <c r="D3" t="n">
-        <v>109.9373434924738</v>
+        <v>94.81103524262392</v>
       </c>
       <c r="E3" t="n">
-        <v>126.1286925631407</v>
+        <v>514.2648358039888</v>
       </c>
       <c r="F3" t="n">
-        <v>268.2643481230871</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,16 +27014,16 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598434</v>
+        <v>244.4501167931508</v>
       </c>
       <c r="D4" t="n">
-        <v>134.7224264196996</v>
+        <v>110.1392527666935</v>
       </c>
       <c r="E4" t="n">
-        <v>154.5640722564302</v>
+        <v>630.5933313734843</v>
       </c>
       <c r="F4" t="n">
-        <v>328.7438349237134</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,22 +27032,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.56299777364188</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598434</v>
+        <v>244.4501167931503</v>
       </c>
       <c r="L4" t="n">
-        <v>134.7224264196996</v>
+        <v>110.1392527666935</v>
       </c>
       <c r="M4" t="n">
-        <v>154.5640722564302</v>
+        <v>630.5933313734845</v>
       </c>
       <c r="N4" t="n">
-        <v>328.7438349237134</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27260,16 +27260,16 @@
         <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598434</v>
+        <v>244.4501167931508</v>
       </c>
       <c r="L4" t="n">
-        <v>134.7224264196996</v>
+        <v>110.1392527666935</v>
       </c>
       <c r="M4" t="n">
-        <v>154.5640722564302</v>
+        <v>630.5933313734843</v>
       </c>
       <c r="N4" t="n">
-        <v>328.7438349237134</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>313.4793760398753</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753916</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871046</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>241.0392804517286</v>
       </c>
     </row>
     <row r="3">
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>50.37046617768912</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27472,16 +27472,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>33.69938639163435</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>125.4170207296192</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27563,7 +27563,7 @@
         <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.57770336425668</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>53.2091592092504</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.8578877276005</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425924</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092505</v>
+        <v>139.4987618372556</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>234.7281020228174</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27700,7 +27700,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.47037835246132</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937519</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721433</v>
+        <v>44.33060630074803</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>36.44991063792176</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>188.8988092996279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5398113612452</v>
+        <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1541654470835</v>
+        <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.24193919304057</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>9.068535313726807</v>
+        <v>36.91115760589163</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>115.7603165166224</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
-        <v>221.3678187343026</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>53.92309111437112</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>192.2017273515794</v>
+        <v>122.8068396295472</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>61.1249756826364</v>
+        <v>78.16360657708287</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27934,25 +27934,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>5.164614673059077</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.2707648440514</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>74.22383331714647</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904879</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721421</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>135.5663557888585</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2532534423388</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923915</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425542</v>
       </c>
       <c r="R10" t="n">
-        <v>99.15891518508491</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>193.7327745714999</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
-        <v>220.5207605139508</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>163.6957220826818</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29693,7 +29693,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29930,7 +29930,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>-3.232838081714498e-12</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.432002671508275</v>
+        <v>3.05085278108567</v>
       </c>
       <c r="H5" t="n">
-        <v>35.14799735958413</v>
+        <v>31.24454604429363</v>
       </c>
       <c r="I5" t="n">
-        <v>132.3122829933229</v>
+        <v>117.6180018428054</v>
       </c>
       <c r="J5" t="n">
-        <v>291.2869367409257</v>
+        <v>258.9373162286701</v>
       </c>
       <c r="K5" t="n">
-        <v>436.5636098258711</v>
+        <v>388.0799144520266</v>
       </c>
       <c r="L5" t="n">
-        <v>541.5957615840425</v>
+        <v>481.4474502511773</v>
       </c>
       <c r="M5" t="n">
-        <v>602.6296390934777</v>
+        <v>535.7030533968095</v>
       </c>
       <c r="N5" t="n">
-        <v>612.3808166839008</v>
+        <v>544.3712888610693</v>
       </c>
       <c r="O5" t="n">
-        <v>578.2538401190903</v>
+        <v>514.0343715191486</v>
       </c>
       <c r="P5" t="n">
-        <v>493.5262741662297</v>
+        <v>438.7164434860961</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6176784928394</v>
+        <v>329.4577782634654</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141319</v>
+        <v>191.6431310098729</v>
       </c>
       <c r="S5" t="n">
-        <v>78.20676087699489</v>
+        <v>69.52130774898977</v>
       </c>
       <c r="T5" t="n">
-        <v>15.02359169452748</v>
+        <v>13.35510804920253</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2745602137206619</v>
+        <v>0.2440682224868536</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.836283316175396</v>
+        <v>1.632350146030886</v>
       </c>
       <c r="H6" t="n">
-        <v>17.73463097464133</v>
+        <v>15.76506588403514</v>
       </c>
       <c r="I6" t="n">
-        <v>63.22291242095114</v>
+        <v>56.20152915062481</v>
       </c>
       <c r="J6" t="n">
-        <v>173.4885040076062</v>
+        <v>154.2212916475935</v>
       </c>
       <c r="K6" t="n">
-        <v>296.5194861913577</v>
+        <v>263.5887514316628</v>
       </c>
       <c r="L6" t="n">
-        <v>398.7070419616797</v>
+        <v>354.4276051721887</v>
       </c>
       <c r="M6" t="n">
-        <v>465.2723121730377</v>
+        <v>413.6002979658082</v>
       </c>
       <c r="N6" t="n">
-        <v>477.5866858152842</v>
+        <v>424.5470671468663</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8985133884504</v>
+        <v>388.377624437445</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6495746475631</v>
+        <v>311.7072835872488</v>
       </c>
       <c r="Q6" t="n">
-        <v>234.3999545349506</v>
+        <v>208.3680642547496</v>
       </c>
       <c r="R6" t="n">
-        <v>114.0106430867496</v>
+        <v>101.3488976632159</v>
       </c>
       <c r="S6" t="n">
-        <v>34.10815721053858</v>
+        <v>30.32018801947718</v>
       </c>
       <c r="T6" t="n">
-        <v>7.401510384057842</v>
+        <v>6.579516597378876</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1073914569757162</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.539478247526971</v>
+        <v>1.368507528236995</v>
       </c>
       <c r="H7" t="n">
-        <v>13.68736114619435</v>
+        <v>12.16727602377984</v>
       </c>
       <c r="I7" t="n">
-        <v>46.29630948017474</v>
+        <v>41.15475366734528</v>
       </c>
       <c r="J7" t="n">
-        <v>108.8411121001568</v>
+        <v>96.75348224635555</v>
       </c>
       <c r="K7" t="n">
-        <v>178.8593818490426</v>
+        <v>158.9956928260799</v>
       </c>
       <c r="L7" t="n">
-        <v>228.8784296368735</v>
+        <v>203.4597465162529</v>
       </c>
       <c r="M7" t="n">
-        <v>241.3202129282505</v>
+        <v>214.5197755399137</v>
       </c>
       <c r="N7" t="n">
-        <v>235.5821576420138</v>
+        <v>209.4189747528487</v>
       </c>
       <c r="O7" t="n">
-        <v>217.5982526595396</v>
+        <v>193.4323186275346</v>
       </c>
       <c r="P7" t="n">
-        <v>186.1928964099892</v>
+        <v>165.5147650514998</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.9103103451903</v>
+        <v>114.5938440235542</v>
       </c>
       <c r="R7" t="n">
-        <v>69.22054011153088</v>
+        <v>61.53307486054705</v>
       </c>
       <c r="S7" t="n">
-        <v>26.82890727735639</v>
+        <v>23.84935392391199</v>
       </c>
       <c r="T7" t="n">
-        <v>6.577770693978874</v>
+        <v>5.847259438830796</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.07464586517656345</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.873961841327265</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>39.67421170749286</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>149.3509138877695</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J8" t="n">
-        <v>328.7976688303502</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K8" t="n">
-        <v>492.7824735737335</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L8" t="n">
-        <v>611.3402332752529</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M8" t="n">
-        <v>680.2338021709566</v>
+        <v>602.6296390934784</v>
       </c>
       <c r="N8" t="n">
-        <v>691.2406962526277</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O8" t="n">
-        <v>652.7189881929297</v>
+        <v>578.2538401190909</v>
       </c>
       <c r="P8" t="n">
-        <v>557.0805552351627</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q8" t="n">
-        <v>418.34429679263</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R8" t="n">
-        <v>243.347755515274</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
-        <v>88.27790545924513</v>
+        <v>78.20676087699498</v>
       </c>
       <c r="T8" t="n">
-        <v>16.95826796041011</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3099169473061811</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.072752319159207</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>20.01842371398498</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I9" t="n">
-        <v>71.36449870789377</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J9" t="n">
-        <v>195.8296390658267</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>334.7040444494936</v>
+        <v>296.519486191358</v>
       </c>
       <c r="L9" t="n">
-        <v>450.0508928069148</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M9" t="n">
-        <v>525.1881643764359</v>
+        <v>465.2723121730382</v>
       </c>
       <c r="N9" t="n">
-        <v>539.0883323413238</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O9" t="n">
-        <v>493.1605046378488</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P9" t="n">
-        <v>395.8047827699718</v>
+        <v>350.6495746475635</v>
       </c>
       <c r="Q9" t="n">
-        <v>264.5850153368841</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R9" t="n">
-        <v>128.6924641667445</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S9" t="n">
-        <v>38.50046522648788</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T9" t="n">
-        <v>8.354646409242592</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1363652841552111</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.737725916119957</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>15.44996314513926</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>52.25815755022562</v>
+        <v>46.29630948017479</v>
       </c>
       <c r="J10" t="n">
-        <v>122.8572222696809</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>201.8921564364822</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>258.3524512020525</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>272.3964361059673</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>265.9194576913386</v>
+        <v>235.5821576420141</v>
       </c>
       <c r="O10" t="n">
-        <v>245.6196594893918</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P10" t="n">
-        <v>210.1700508005445</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q10" t="n">
-        <v>145.5108492125538</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
-        <v>78.13447619208458</v>
+        <v>69.22054011153095</v>
       </c>
       <c r="S10" t="n">
-        <v>30.28382346547232</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T10" t="n">
-        <v>7.424828914330721</v>
+        <v>6.577770693978882</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09478504997017956</v>
+        <v>0.08397154077419861</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854257</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>595.1789865954819</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.77318271548567</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561742</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.1126397860859</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>10.46359496551969</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377425</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122282</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874064</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>694.463976083043</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364263</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293307</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229608</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086952</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687524</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148606</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987162</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854257</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665719</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540905</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.2113810308819</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>275.9770021735818</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745724</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927637</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426204</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>195.1793561990821</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.2575834086216</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821092</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291843</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548567</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284925</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273333</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900886</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640618</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265021</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416874</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465962</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282424</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561742</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860859</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851328</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551969</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377425</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122282</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874064</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>694.463976083043</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364263</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293307</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229608</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086952</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687524</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148606</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987162</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854257</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665719</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540905</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.2113810308819</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735818</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745724</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927637</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426204</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>195.1793561990821</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.2575834086216</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821092</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291843</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548567</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284925</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273333</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900886</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640618</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265021</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416874</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465962</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282424</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561742</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860859</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851328</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551969</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32797,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,19 +33034,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,16 +33985,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>697.0074482175629</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34450,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>110.2410322142394</v>
+        <v>77.89141170198383</v>
       </c>
       <c r="K5" t="n">
-        <v>216.4737587808905</v>
+        <v>167.9900634070461</v>
       </c>
       <c r="L5" t="n">
-        <v>305.8293466140553</v>
+        <v>245.6810352811901</v>
       </c>
       <c r="M5" t="n">
-        <v>372.283405866205</v>
+        <v>305.3568201695368</v>
       </c>
       <c r="N5" t="n">
-        <v>382.9677530873099</v>
+        <v>314.9582252644784</v>
       </c>
       <c r="O5" t="n">
-        <v>348.1556286974036</v>
+        <v>283.9361600974619</v>
       </c>
       <c r="P5" t="n">
-        <v>262.2932784109601</v>
+        <v>207.4834477308265</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.31198861839</v>
+        <v>107.1520883890159</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.65087734093947</v>
+        <v>27.38366498092682</v>
       </c>
       <c r="K6" t="n">
-        <v>158.6780472169987</v>
+        <v>125.7473124573038</v>
       </c>
       <c r="L6" t="n">
-        <v>260.1526621818056</v>
+        <v>215.8732253923145</v>
       </c>
       <c r="M6" t="n">
-        <v>323.1382782510194</v>
+        <v>271.4662640437899</v>
       </c>
       <c r="N6" t="n">
-        <v>346.2449737319509</v>
+        <v>293.2053550635329</v>
       </c>
       <c r="O6" t="n">
-        <v>294.302268944006</v>
+        <v>245.7813799930006</v>
       </c>
       <c r="P6" t="n">
-        <v>216.6751672332329</v>
+        <v>177.7328761729185</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.41818044892904</v>
+        <v>68.3862901687281</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>49.84612367850721</v>
+        <v>29.98243465554455</v>
       </c>
       <c r="L7" t="n">
-        <v>93.99375335563525</v>
+        <v>68.57507023501464</v>
       </c>
       <c r="M7" t="n">
-        <v>102.3944289806455</v>
+        <v>75.59399159230861</v>
       </c>
       <c r="N7" t="n">
-        <v>107.8966131767806</v>
+        <v>81.73343028761548</v>
       </c>
       <c r="O7" t="n">
-        <v>79.14171420769679</v>
+        <v>54.97578017569182</v>
       </c>
       <c r="P7" t="n">
-        <v>48.46489236084162</v>
+        <v>27.78676100235216</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.7517643036639</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K8" t="n">
-        <v>272.6926225287529</v>
+        <v>216.473758780891</v>
       </c>
       <c r="L8" t="n">
-        <v>375.5738183052657</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M8" t="n">
-        <v>449.8875689436838</v>
+        <v>372.2834058662057</v>
       </c>
       <c r="N8" t="n">
-        <v>461.8276326560368</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O8" t="n">
-        <v>422.620776771243</v>
+        <v>348.1556286974042</v>
       </c>
       <c r="P8" t="n">
-        <v>325.8475594798932</v>
+        <v>262.2932784109607</v>
       </c>
       <c r="Q8" t="n">
-        <v>196.0386069181805</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R8" t="n">
-        <v>27.76221770114188</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>68.99201239916005</v>
+        <v>46.65087734093967</v>
       </c>
       <c r="K9" t="n">
-        <v>196.8626054751346</v>
+        <v>158.678047216999</v>
       </c>
       <c r="L9" t="n">
-        <v>311.4965130270406</v>
+        <v>260.152662181806</v>
       </c>
       <c r="M9" t="n">
-        <v>383.0541304544176</v>
+        <v>323.1382782510199</v>
       </c>
       <c r="N9" t="n">
-        <v>407.7466202579906</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O9" t="n">
-        <v>350.5642601934043</v>
+        <v>294.3022689440065</v>
       </c>
       <c r="P9" t="n">
-        <v>261.8303753556416</v>
+        <v>216.6751672332333</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.6032412508626</v>
+        <v>94.41818044892929</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>72.87889826594679</v>
+        <v>49.84612367850741</v>
       </c>
       <c r="L10" t="n">
-        <v>123.4677749208142</v>
+        <v>93.99375335563548</v>
       </c>
       <c r="M10" t="n">
-        <v>133.4706521583623</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N10" t="n">
-        <v>138.2339132261054</v>
+        <v>107.8966131767809</v>
       </c>
       <c r="O10" t="n">
-        <v>107.163121037549</v>
+        <v>79.14171420769702</v>
       </c>
       <c r="P10" t="n">
-        <v>72.44204675139687</v>
+        <v>48.46489236084182</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>452.5827421510375</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607201</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380625</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>625.777556066439</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>728.287436302058</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263698</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870084</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134828</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404111</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845841</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>149.1393755069151</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946982</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094305</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>552.400479798176</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>61.20494878475183</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066049</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642057</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>391.678604124378</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883427</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209161</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606359</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931358</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044798</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607201</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380625</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>625.777556066439</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>728.287436302058</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263698</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870084</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134828</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404111</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845841</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069151</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946982</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094305</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>552.400479798176</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>61.20494878475183</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066049</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642057</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>391.678604124378</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883427</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209161</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606359</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931358</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044798</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,19 +36682,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326294864</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326294864</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,16 +37633,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>565.6657361342296</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1567465.941597836</v>
+        <v>1569322.095281391</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>461523.385748071</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10442874.46950188</v>
+        <v>10426384.51980256</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>68.45099403238667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.198658204325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>162.7006698602315</v>
       </c>
       <c r="C3" t="n">
-        <v>122.3380328106266</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>20.00402729331206</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>353.666886532461</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404938</v>
+        <v>315.4285991244003</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>137.2349592593359</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>209.3058629286494</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>196.3506765115035</v>
+        <v>25.04369643774278</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>76.60661600358057</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>164.6615622377237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>231.8762019911357</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>122.3091917730446</v>
       </c>
     </row>
     <row r="9">
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>20.27697994470865</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>20.27697994470972</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>31.68046530976929</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>125.0721477169172</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>233.2715658672525</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>104.8913819999782</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.37259901119256</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>148.9055307001832</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,10 +1700,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1776,10 +1776,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>123.1003334151313</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>35.41770597126702</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>148.9055307001832</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1937,10 +1937,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2013,13 +2013,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2811815126420993</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>38.03682829123383</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>200.6173698503548</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2174,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>131.6267707433217</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>100.0416311957212</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>64.36993339924405</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179425</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>62.36981422367011</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>41.74133133758728</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>91.89996056624345</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703221</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>111.5361117049704</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,10 +3432,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>4.974488840438739</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>241.1435815093809</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>35.88641949135544</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>156.3923706291105</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.17768229832527</v>
+        <v>589.7227393823978</v>
       </c>
       <c r="C2" t="n">
-        <v>35.17768229832527</v>
+        <v>589.7227393823978</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832527</v>
+        <v>400.302954365913</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832527</v>
+        <v>400.302954365913</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>210.8831693494282</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
         <v>15.00204697330559</v>
@@ -4342,40 +4342,40 @@
         <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
         <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652795</v>
+        <v>589.7227393823978</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652795</v>
+        <v>589.7227393823978</v>
       </c>
       <c r="U2" t="n">
-        <v>560.6825636487947</v>
+        <v>589.7227393823978</v>
       </c>
       <c r="V2" t="n">
-        <v>371.26277863231</v>
+        <v>589.7227393823978</v>
       </c>
       <c r="W2" t="n">
-        <v>181.8429936158252</v>
+        <v>589.7227393823978</v>
       </c>
       <c r="X2" t="n">
-        <v>181.8429936158252</v>
+        <v>589.7227393823978</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.17768229832527</v>
+        <v>589.7227393823978</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>581.8870116452115</v>
+        <v>323.1739116400124</v>
       </c>
       <c r="C3" t="n">
-        <v>458.313241129427</v>
+        <v>323.1739116400124</v>
       </c>
       <c r="D3" t="n">
-        <v>458.313241129427</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E3" t="n">
-        <v>299.0757861239715</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>152.5412281508565</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
         <v>15.00204697330559</v>
@@ -4421,40 +4421,40 @@
         <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546602</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264279</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264279</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264279</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264279</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264279</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264279</v>
       </c>
       <c r="X3" t="n">
-        <v>750.1023486652795</v>
+        <v>487.5180226099432</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.1023486652795</v>
+        <v>487.5180226099432</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F4" t="n">
-        <v>29.24882464404147</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>29.24882464404147</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>29.24882464404147</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>29.24882464404147</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404147</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
         <v>42.98993985170716</v>
@@ -4506,34 +4506,34 @@
         <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>773.135493728392</v>
+        <v>766.4552697359195</v>
       </c>
       <c r="C5" t="n">
-        <v>404.1729767879803</v>
+        <v>766.4552697359195</v>
       </c>
       <c r="D5" t="n">
-        <v>404.1729767879803</v>
+        <v>766.4552697359195</v>
       </c>
       <c r="E5" t="n">
-        <v>404.1729767879803</v>
+        <v>766.4552697359195</v>
       </c>
       <c r="F5" t="n">
-        <v>46.93369746226207</v>
+        <v>355.4693649463119</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675765</v>
+        <v>36.85461835600864</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675765</v>
+        <v>36.85461835600864</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675765</v>
+        <v>36.85461835600864</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017221</v>
+        <v>122.3145011261498</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746982</v>
+        <v>301.1352304553223</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030762</v>
+        <v>559.8799194566309</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709173</v>
+        <v>879.4526781788784</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582751</v>
+        <v>1208.810266619118</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079238</v>
+        <v>1506.478036654144</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332757</v>
+        <v>1726.029590732829</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837882</v>
+        <v>1842.730917800432</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837882</v>
+        <v>1842.730917800432</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.902815837882</v>
+        <v>1704.109746831406</v>
       </c>
       <c r="T5" t="n">
-        <v>1516.043480974318</v>
+        <v>1492.689683267113</v>
       </c>
       <c r="U5" t="n">
-        <v>1516.043480974318</v>
+        <v>1492.689683267113</v>
       </c>
       <c r="V5" t="n">
-        <v>1516.043480974318</v>
+        <v>1492.689683267113</v>
       </c>
       <c r="W5" t="n">
-        <v>1163.274825704204</v>
+        <v>1139.921027996999</v>
       </c>
       <c r="X5" t="n">
-        <v>1163.274825704204</v>
+        <v>766.4552697359195</v>
       </c>
       <c r="Y5" t="n">
-        <v>773.135493728392</v>
+        <v>766.4552697359195</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663.7175082377064</v>
+        <v>666.0140702769575</v>
       </c>
       <c r="C6" t="n">
-        <v>489.2644789565794</v>
+        <v>491.5610409958305</v>
       </c>
       <c r="D6" t="n">
-        <v>340.3300692953281</v>
+        <v>342.6266313345792</v>
       </c>
       <c r="E6" t="n">
-        <v>181.0926142898727</v>
+        <v>183.3891763291237</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675765</v>
+        <v>36.85461835600864</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675765</v>
+        <v>36.85461835600864</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675765</v>
+        <v>36.85461835600864</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675765</v>
+        <v>36.85461835600864</v>
       </c>
       <c r="J6" t="n">
-        <v>61.6678846478752</v>
+        <v>68.93609211810445</v>
       </c>
       <c r="K6" t="n">
-        <v>186.157723980606</v>
+        <v>201.9232653644106</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189974</v>
+        <v>427.0634725857405</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223493</v>
+        <v>709.1483434077645</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352469</v>
+        <v>1013.107806306465</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228317</v>
+        <v>1268.951536358887</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639507</v>
+        <v>1454.955619064349</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906548</v>
+        <v>1529.375226064141</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906548</v>
+        <v>1529.375226064141</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906548</v>
+        <v>1529.375226064141</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906548</v>
+        <v>1529.375226064141</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.878660906548</v>
+        <v>1529.375226064141</v>
       </c>
       <c r="V6" t="n">
-        <v>1247.544644228261</v>
+        <v>1504.078562995714</v>
       </c>
       <c r="W6" t="n">
-        <v>1247.544644228261</v>
+        <v>1249.841206267512</v>
       </c>
       <c r="X6" t="n">
-        <v>1039.693144022728</v>
+        <v>1041.989706061979</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.9328452577745</v>
+        <v>834.2294072970255</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>203.4942392446646</v>
+        <v>331.6576594363121</v>
       </c>
       <c r="C7" t="n">
-        <v>34.55805631675765</v>
+        <v>331.6576594363121</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675765</v>
+        <v>331.6576594363121</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675765</v>
+        <v>183.744565853919</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675765</v>
+        <v>36.85461835600864</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675765</v>
+        <v>36.85461835600864</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675765</v>
+        <v>36.85461835600864</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675765</v>
+        <v>36.85461835600864</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675765</v>
+        <v>36.85461835600864</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574675</v>
+        <v>71.66278688941132</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584112</v>
+        <v>146.1110562813919</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347967</v>
+        <v>227.8646009517964</v>
       </c>
       <c r="N7" t="n">
-        <v>287.884133819536</v>
+        <v>315.5317549640438</v>
       </c>
       <c r="O7" t="n">
-        <v>342.310156193471</v>
+        <v>376.193472116788</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857996</v>
+        <v>409.038079641949</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495857996</v>
+        <v>409.038079641949</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495857996</v>
+        <v>331.6576594363121</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495857996</v>
+        <v>331.6576594363121</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495857996</v>
+        <v>331.6576594363121</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495857996</v>
+        <v>331.6576594363121</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495857996</v>
+        <v>331.6576594363121</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495857996</v>
+        <v>331.6576594363121</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495857996</v>
+        <v>331.6576594363121</v>
       </c>
       <c r="Y7" t="n">
-        <v>203.4942392446646</v>
+        <v>331.6576594363121</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>665.4862413335291</v>
+        <v>1658.315348685945</v>
       </c>
       <c r="C8" t="n">
-        <v>296.5237243931173</v>
+        <v>1289.352831745533</v>
       </c>
       <c r="D8" t="n">
-        <v>62.30533854348526</v>
+        <v>931.087133138783</v>
       </c>
       <c r="E8" t="n">
-        <v>62.30533854348526</v>
+        <v>545.2988805405387</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428179</v>
+        <v>134.3129757509311</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809313</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809313</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301905</v>
+        <v>152.5078184301906</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232726</v>
+        <v>366.8168396232728</v>
       </c>
       <c r="L8" t="n">
         <v>669.587892771188</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135168</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545598</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.63095817245</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="W8" t="n">
-        <v>1815.691171634542</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="X8" t="n">
-        <v>1442.225413373463</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="Y8" t="n">
-        <v>1052.086081397651</v>
+        <v>2044.915188750067</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>693.01044638299</v>
+        <v>672.528648459042</v>
       </c>
       <c r="C9" t="n">
-        <v>518.5574171018631</v>
+        <v>498.075619177915</v>
       </c>
       <c r="D9" t="n">
-        <v>369.6230074406118</v>
+        <v>349.1412095166637</v>
       </c>
       <c r="E9" t="n">
-        <v>210.3855524351563</v>
+        <v>189.9037545112082</v>
       </c>
       <c r="F9" t="n">
-        <v>63.85099446204126</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G9" t="n">
-        <v>63.85099446204126</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562341</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104403</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789501</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N9" t="n">
         <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128148</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689049</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="U9" t="n">
-        <v>1766.227047333489</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V9" t="n">
-        <v>1531.074939101746</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>1276.837582373545</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>1068.986082168012</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>861.2257834030581</v>
+        <v>840.7439854791101</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.2893470406003</v>
+        <v>338.6408822103609</v>
       </c>
       <c r="C10" t="n">
-        <v>488.2888770307324</v>
+        <v>169.704699282454</v>
       </c>
       <c r="D10" t="n">
-        <v>338.1722376183966</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360035</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981547</v>
+        <v>92.71685897981551</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018946</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927338</v>
+        <v>287.141159492734</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377469</v>
+        <v>393.9588065377471</v>
       </c>
       <c r="O10" t="n">
-        <v>472.309103603367</v>
+        <v>472.3091036033672</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470406007</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1897.462430614632</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1153.408479409638</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>742.4225746200302</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>328.4394675364367</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>841.937882512877</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K12" t="n">
-        <v>409.1360811687896</v>
+        <v>570.9683475412852</v>
       </c>
       <c r="L12" t="n">
-        <v>904.4616873845483</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>175.0061676818306</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>175.0061676818306</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>175.0061676818306</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.0061676818306</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.0061676818306</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.9786782557277</v>
+        <v>851.3355051005327</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0424953278208</v>
+        <v>682.3993221726258</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>532.2826827602901</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>384.369589177897</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>2411.187623003223</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T16" t="n">
-        <v>2191.586158026164</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U16" t="n">
-        <v>1902.510931370362</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V16" t="n">
-        <v>1647.826443164475</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W16" t="n">
-        <v>1358.409273127515</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="X16" t="n">
-        <v>1130.419722229497</v>
+        <v>1253.776549074302</v>
       </c>
       <c r="Y16" t="n">
-        <v>909.6271430859674</v>
+        <v>1032.983969930772</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>92.81162322608179</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>841.937882512877</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>240.4596049779264</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.9745311434712</v>
+        <v>745.0885253246406</v>
       </c>
       <c r="C19" t="n">
-        <v>701.0383482155643</v>
+        <v>576.1523423967337</v>
       </c>
       <c r="D19" t="n">
-        <v>550.9217088032285</v>
+        <v>426.035702984398</v>
       </c>
       <c r="E19" t="n">
-        <v>403.0086152208354</v>
+        <v>278.1226094020049</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>131.2326619040945</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>431.422473086198</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2208.696992124549</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1919.620778439275</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052219</v>
+        <v>1664.936290233388</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015258</v>
+        <v>1375.519120196428</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.415575117241</v>
+        <v>1147.52956929841</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.622995973711</v>
+        <v>926.7369901548803</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.777212765616</v>
+        <v>561.9183350635719</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377091</v>
+        <v>392.982152135665</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>392.982152135665</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S22" t="n">
-        <v>2345.91093085731</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T22" t="n">
-        <v>2126.309465880251</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U22" t="n">
-        <v>2126.309465880251</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V22" t="n">
-        <v>1871.624977674364</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W22" t="n">
-        <v>1582.207807637403</v>
+        <v>1192.348929935359</v>
       </c>
       <c r="X22" t="n">
-        <v>1354.218256739386</v>
+        <v>964.3593790373418</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.425677595856</v>
+        <v>743.5667998938117</v>
       </c>
     </row>
     <row r="23">
@@ -5983,7 +5983,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
@@ -5992,16 +5992,16 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>762.5477693179085</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5477693179085</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>613.6374994204285</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>465.7244058380354</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797186</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C31" t="n">
         <v>538.7363435406111</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.052681478291</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038296</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797697</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580256</v>
+        <v>2404.800122633203</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.10824923516</v>
+        <v>2221.945288288107</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>2002.343823311048</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,37 +6715,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400667</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121598</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121598</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121598</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121598</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>120.1346509896242</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.052681478291</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038296</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797697</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832658</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487563</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510504</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854702</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648815</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611854</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138365</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703064</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6931,25 +6931,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,13 +6958,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832229</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>634.927936255316</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7137,10 +7137,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1206.305163156993</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134626</v>
+        <v>1211.329899359456</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429803</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>2227.361618603201</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1972.677130397314</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="41">
@@ -7408,16 +7408,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7502,7 +7502,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
         <v>402.7245934908939</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7739,7 +7739,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
   </sheetData>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>50.29152613729178</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>43.72409101823415</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0.4319777332164705</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>50.2915261372909</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>22.32071460779994</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>145.6085800303776</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>50.29152613729093</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.1398665102892</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>127.5052245859331</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>50.29152613729153</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>14.80719190324746</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
-        <v>80.98465480592338</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>84.24553961896831</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>136.2749052347518</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>83.05123379926113</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>24.63391537253441</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>125.5054897610448</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.2291039219467</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>55.21102825632968</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>68.29586847696686</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>220.7351665485984</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>45.37941682721012</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>10.85445046951733</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>903109.8587843146</v>
+        <v>898196.3479271419</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>903109.8587843147</v>
+        <v>898196.3479271419</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>903109.8587843147</v>
+        <v>898196.3479271419</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>903109.8587843147</v>
+        <v>898196.3479271418</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>903109.8587843146</v>
+        <v>903109.8587843147</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>903109.8587843145</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>903109.8587843145</v>
+        <v>903109.8587843147</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>903109.8587843146</v>
+        <v>903109.8587843147</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>903109.8587843147</v>
+        <v>903109.8587843146</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.289798504</v>
+        <v>521741.85156472</v>
       </c>
       <c r="F2" t="n">
+        <v>521741.8515647201</v>
+      </c>
+      <c r="G2" t="n">
+        <v>521741.8515647202</v>
+      </c>
+      <c r="H2" t="n">
+        <v>521741.8515647202</v>
+      </c>
+      <c r="I2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="J2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="G2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="H2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="I2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.2897985041</v>
       </c>
       <c r="K2" t="n">
         <v>524645.2897985039</v>
@@ -26346,16 +26346,16 @@
         <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="N2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="P2" t="n">
-        <v>524645.2897985042</v>
       </c>
     </row>
     <row r="3">
@@ -26368,37 +26368,37 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253117</v>
+        <v>302369.4048679851</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231945</v>
+        <v>85329.23106956761</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742643</v>
+        <v>589710.8045858941</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10818.91345744842</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854471</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881951</v>
+        <v>70301.90739529398</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197524</v>
+        <v>20609.7638335244</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515978</v>
+        <v>154015.631254415</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263464</v>
+        <v>198159.2161991122</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888974</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189197</v>
+        <v>16040.05135066662</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16040.05135066662</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189197</v>
+        <v>16040.05135066662</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189197</v>
+        <v>16040.05135066662</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26472,22 +26472,22 @@
         <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936815</v>
+        <v>78719.83982550888</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587231</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-393202.1173548048</v>
       </c>
       <c r="C6" t="n">
-        <v>-19955.36925924207</v>
+        <v>-45571.31048082205</v>
       </c>
       <c r="D6" t="n">
-        <v>158865.0244438198</v>
+        <v>188945.847397447</v>
       </c>
       <c r="E6" t="n">
-        <v>-194314.4108259163</v>
+        <v>-184197.0378812447</v>
       </c>
       <c r="F6" t="n">
-        <v>407128.7967483478</v>
+        <v>405513.7667046493</v>
       </c>
       <c r="G6" t="n">
-        <v>407128.7967483478</v>
+        <v>405513.7667046498</v>
       </c>
       <c r="H6" t="n">
-        <v>407128.7967483478</v>
+        <v>405513.7667046491</v>
       </c>
       <c r="I6" t="n">
-        <v>407128.7967483479</v>
+        <v>396622.5246198206</v>
       </c>
       <c r="J6" t="n">
-        <v>358063.8520198035</v>
+        <v>358376.4933487244</v>
       </c>
       <c r="K6" t="n">
-        <v>344215.1590895284</v>
+        <v>337139.5306819751</v>
       </c>
       <c r="L6" t="n">
-        <v>379253.5431263727</v>
+        <v>386831.6742437448</v>
       </c>
       <c r="M6" t="n">
-        <v>249982.4161967502</v>
+        <v>253425.8068228541</v>
       </c>
       <c r="N6" t="n">
-        <v>407128.7967483478</v>
+        <v>407441.4380772692</v>
       </c>
       <c r="O6" t="n">
-        <v>407128.7967483479</v>
+        <v>407441.4380772691</v>
       </c>
       <c r="P6" t="n">
-        <v>407128.7967483482</v>
+        <v>407441.4380772692</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.899629295061</v>
+        <v>783.611462153317</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376849</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26792,22 +26792,22 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594706</v>
+        <v>460.682729450108</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261641</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26962,25 +26962,25 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821564</v>
+        <v>235.1415212404124</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262392</v>
+        <v>70.09920238436814</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039888</v>
+        <v>504.3303841787005</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931508</v>
+        <v>273.1571422837881</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666935</v>
+        <v>81.43222727605628</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734843</v>
+        <v>618.0303335998422</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931503</v>
+        <v>273.1571422837881</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666935</v>
+        <v>81.43222727605645</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734845</v>
+        <v>618.0303335998419</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931508</v>
+        <v>273.1571422837881</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666935</v>
+        <v>81.43222727605628</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734843</v>
+        <v>618.0303335998422</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.157454454363</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>344.6468391976713</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871046</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0392804517286</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,22 +27457,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.832513789635868</v>
       </c>
       <c r="C3" t="n">
-        <v>50.37046617768912</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715755</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>125.4170207296192</v>
+        <v>93.20510176849682</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27563,7 +27563,7 @@
         <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
         <v>68.68604055159726</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>53.2091592092504</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>96.72394155795763</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>307.2128488020882</v>
       </c>
       <c r="I5" t="n">
-        <v>92.8578877276005</v>
+        <v>89.02792617476466</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425924</v>
+        <v>17.7019860171942</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372556</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>251.0936371612143</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>135.6580132634846</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246132</v>
+        <v>95.95702499440586</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937519</v>
+        <v>41.49077643487227</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074803</v>
+        <v>41.03041096167753</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>140.3756754225237</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>193.3709651691716</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>225.8304936665192</v>
       </c>
       <c r="V6" t="n">
-        <v>36.44991063792176</v>
+        <v>207.7568907116825</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>166.5779095086741</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0598964836597</v>
+        <v>149.6636969338995</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>112.9556107173702</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304057</v>
+        <v>27.09138305961996</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589163</v>
+        <v>33.17967084429498</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>37.15001649145277</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>199.3906443820885</v>
       </c>
       <c r="T7" t="n">
-        <v>222.0983299894507</v>
+        <v>221.9079273428379</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>286.2419528192299</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.92309111437112</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>122.8068396295472</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708287</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>263.928746883009</v>
       </c>
     </row>
     <row r="9">
@@ -27949,10 +27949,10 @@
         <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>74.22383331714647</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904879</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721421</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
@@ -27988,7 +27988,7 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>205.5435940233588</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>135.5663557888585</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>23.54332530129511</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923915</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425542</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
         <v>108.0728512656385</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29693,7 +29693,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29930,7 +29930,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-3.232838081714498e-12</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.05085278108567</v>
+        <v>3.150196832777151</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429363</v>
+        <v>32.26195331367901</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428054</v>
+        <v>121.4479633956413</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286701</v>
+        <v>267.36901843592</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520266</v>
+        <v>400.7168503673769</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511773</v>
+        <v>497.1246866884807</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968095</v>
+        <v>553.1469996133814</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610693</v>
+        <v>562.0974963645095</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191486</v>
+        <v>530.7727266085817</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860961</v>
+        <v>453.0022422993957</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634654</v>
+        <v>340.1858182255638</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098729</v>
+        <v>197.8835517969379</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898977</v>
+        <v>71.7851103269094</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920253</v>
+        <v>13.78998663548199</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868536</v>
+        <v>0.2520157466221721</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030886</v>
+        <v>1.685503899726003</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403514</v>
+        <v>16.27841924209061</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062481</v>
+        <v>58.03160356512773</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475935</v>
+        <v>159.2431557192887</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316628</v>
+        <v>272.1719170009309</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721887</v>
+        <v>365.9687305084902</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658082</v>
+        <v>427.0682468735577</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468663</v>
+        <v>438.3714725870712</v>
       </c>
       <c r="O6" t="n">
-        <v>388.377624437445</v>
+        <v>401.0242545984055</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872488</v>
+        <v>321.8573192380294</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547496</v>
+        <v>215.1530942878315</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632159</v>
+        <v>104.6490930022864</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947718</v>
+        <v>31.30749568131411</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378876</v>
+        <v>6.793763525649982</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757162</v>
+        <v>0.1108884144556581</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236995</v>
+        <v>1.41306984978467</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377984</v>
+        <v>12.56347557354007</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734528</v>
+        <v>42.49486420988809</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635555</v>
+        <v>99.90403837977615</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260799</v>
+        <v>164.1730243658916</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162529</v>
+        <v>210.08494839435</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399137</v>
+        <v>221.5051219985187</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528487</v>
+        <v>216.2382252856851</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275346</v>
+        <v>199.7310002222914</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514998</v>
+        <v>170.904375286684</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235542</v>
+        <v>118.3253307851509</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054705</v>
+        <v>63.53675888213614</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391199</v>
+        <v>24.62595365488374</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830796</v>
+        <v>6.037662085443587</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656345</v>
+        <v>0.07707653726098208</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,43 +31521,43 @@
         <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.312282993323</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.286936740926</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258715</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840431</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934784</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839013</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190909</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662302</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928398</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699498</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
         <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,46 +31597,46 @@
         <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464134</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.2229124209512</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J9" t="n">
         <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.519486191358</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616801</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730382</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152847</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884509</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475635</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349508</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053861</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T9" t="n">
-        <v>7.40151038405785</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017479</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J10" t="n">
         <v>108.841112100157</v>
@@ -31694,28 +31694,28 @@
         <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420141</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595398</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099894</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451904</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153095</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735641</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978882</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419861</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>305.187676947251</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34222,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198383</v>
+        <v>86.32311390923371</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070461</v>
+        <v>180.6269993223963</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811901</v>
+        <v>261.3582717184935</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695368</v>
+        <v>322.8007663861086</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644784</v>
+        <v>332.6844327679186</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974619</v>
+        <v>300.674515186895</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308265</v>
+        <v>221.7692465441261</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890159</v>
+        <v>117.8801283511143</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092682</v>
+        <v>32.40552905262203</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573038</v>
+        <v>134.3304780265719</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923145</v>
+        <v>227.4143507286161</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437899</v>
+        <v>284.9342129515394</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635329</v>
+        <v>307.0297605037379</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930006</v>
+        <v>258.4280101539611</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729185</v>
+        <v>187.8829118236992</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.3862901687281</v>
+        <v>75.17132020181</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554455</v>
+        <v>35.15976619535624</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501464</v>
+        <v>75.20027211311168</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230861</v>
+        <v>82.57933805091366</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761548</v>
+        <v>88.55268082045194</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569182</v>
+        <v>61.27446177044862</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235216</v>
+        <v>33.17637123753639</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142397</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.473758780891</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140559</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662057</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873104</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974042</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109607</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183904</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093967</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K9" t="n">
-        <v>158.678047216999</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>260.152662181806</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510199</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319514</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440065</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332333</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892929</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850741</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563548</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806457</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767809</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769702</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084182</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>167.346237972892</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326294864</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326294864</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37870,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
